--- a/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,05; 85,83</t>
+          <t>71,26; 85,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,24; 83,32</t>
+          <t>68,6; 82,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,24; 82,78</t>
+          <t>72,89; 82,62</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,98; 78,49</t>
+          <t>67,22; 78,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,23; 72,37</t>
+          <t>59,72; 72,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,71; 73,59</t>
+          <t>65,21; 73,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 76,16</t>
+          <t>67,76; 75,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,96; 66,92</t>
+          <t>59,67; 66,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,86; 70,27</t>
+          <t>64,71; 69,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 78,35</t>
+          <t>67,55; 78,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,15; 67,17</t>
+          <t>61,08; 67,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,53; 72,68</t>
+          <t>65,39; 72,38</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,32; 75,09</t>
+          <t>67,62; 74,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,96; 73,87</t>
+          <t>67,96; 73,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,51; 73,32</t>
+          <t>68,58; 73,5</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,69; 72,63</t>
+          <t>66,31; 72,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,09; 82,14</t>
+          <t>67,9; 81,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,44; 78,19</t>
+          <t>68,52; 77,58</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,41; 74,2</t>
+          <t>70,26; 74,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,13; 72,26</t>
+          <t>67,05; 72,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,11; 72,29</t>
+          <t>69,15; 72,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,26; 85,14</t>
+          <t>72,05; 85,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,6; 82,39</t>
+          <t>70,24; 83,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,89; 82,62</t>
+          <t>73,24; 82,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,22; 78,35</t>
+          <t>66,98; 78,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,72; 72,18</t>
+          <t>59,23; 72,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,21; 73,65</t>
+          <t>64,71; 73,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,76; 75,94</t>
+          <t>67,57; 76,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,67; 66,81</t>
+          <t>59,96; 66,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,71; 69,88</t>
+          <t>64,86; 70,27</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,55; 78,08</t>
+          <t>67,0; 78,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,08; 67,31</t>
+          <t>61,15; 67,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,39; 72,38</t>
+          <t>65,53; 72,68</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,62; 74,52</t>
+          <t>67,32; 75,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,96; 73,89</t>
+          <t>67,96; 73,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,58; 73,5</t>
+          <t>68,51; 73,32</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,31; 72,51</t>
+          <t>66,69; 72,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,9; 81,49</t>
+          <t>68,09; 82,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,52; 77,58</t>
+          <t>68,44; 78,19</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,26; 74,28</t>
+          <t>70,41; 74,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,43</t>
+          <t>67,13; 72,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,15; 72,39</t>
+          <t>69,11; 72,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76,86%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>78,13%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,05; 85,83</t>
+          <t>71,51; 86,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,24; 83,32</t>
+          <t>70,09; 83,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,24; 82,78</t>
+          <t>72,9; 83,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>64,96%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,98; 78,49</t>
+          <t>66,17; 77,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,23; 72,37</t>
+          <t>36,54; 70,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,71; 73,59</t>
+          <t>47,84; 71,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>70,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>62,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>66,82%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 76,16</t>
+          <t>66,73; 75,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,96; 66,92</t>
+          <t>59,0; 66,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,86; 70,27</t>
+          <t>64,1; 69,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>71,77%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 78,35</t>
+          <t>66,72; 90,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,15; 67,17</t>
+          <t>60,6; 66,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,53; 72,68</t>
+          <t>65,34; 83,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>70,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,96%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>70,48%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,32; 75,09</t>
+          <t>66,68; 74,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,96; 73,87</t>
+          <t>67,44; 73,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,51; 73,32</t>
+          <t>67,93; 72,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>76,48%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,69; 72,63</t>
+          <t>64,63; 73,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,09; 82,14</t>
+          <t>69,4; 92,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,44; 78,19</t>
+          <t>68,51; 88,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>67,58%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,41; 74,2</t>
+          <t>64,76; 74,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,13; 72,26</t>
+          <t>62,6; 69,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,11; 72,29</t>
+          <t>64,74; 70,49</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>73,4%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68,2%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70,6; 81,21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64,16; 73,99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>68,05; 74,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,51; 86,09</t>
+          <t>70,38; 85,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,09; 83,33</t>
+          <t>69,81; 82,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,9; 83,27</t>
+          <t>72,81; 82,61</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,17; 77,98</t>
+          <t>66,71; 77,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,54; 70,56</t>
+          <t>34,14; 70,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,84; 71,8</t>
+          <t>48,34; 71,91</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,73; 75,4</t>
+          <t>66,93; 75,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,0; 66,01</t>
+          <t>58,57; 66,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,1; 69,62</t>
+          <t>63,89; 69,55</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,72; 90,29</t>
+          <t>67,17; 91,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,6; 66,62</t>
+          <t>60,8; 66,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,34; 83,83</t>
+          <t>65,24; 82,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,68; 74,44</t>
+          <t>66,66; 73,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,44; 73,34</t>
+          <t>67,53; 73,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,93; 72,77</t>
+          <t>68,08; 72,91</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,63; 73,02</t>
+          <t>64,06; 72,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,4; 92,47</t>
+          <t>69,45; 92,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,51; 88,57</t>
+          <t>68,81; 88,82</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,76; 74,33</t>
+          <t>64,39; 74,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,6; 69,83</t>
+          <t>62,06; 69,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64,74; 70,49</t>
+          <t>64,15; 70,37</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 81,21</t>
+          <t>70,52; 80,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>64,16; 73,99</t>
+          <t>64,1; 74,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>68,05; 74,58</t>
+          <t>68,3; 75,17</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>277548</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>207889</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>485437</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>246664; 299408</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>189095; 224170</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>452381; 513248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>283805</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>281209</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>565013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>261360; 305075</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>163193; 339091</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>420461; 625450</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>364826</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>320677</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>685503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>343972; 386384</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>299843; 337969</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>655426; 713523</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>648983</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>401965</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1050949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>560824; 762556</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>382746; 421275</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>955321; 1209707</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>369433</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>351318</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>720752</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>349219; 387383</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>336838; 365322</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>696199; 745672</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>227662</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>459435</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>687097</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>212705; 240305</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>393363; 525208</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>618185; 797948</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>165536</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>221457</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>386993</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153240; 176099</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>207706; 233575</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>367350; 403006</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2337794</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2243949</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4581743</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2245967; 2556099</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2109104; 2434830</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4422301; 4867367</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>